--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/FoodAllergyVS</t>
+    <t>http://example.com/fhir/example/ImplementationGuide/my-ig/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T18:50:22+00:00</t>
+    <t>2022-09-26T19:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>My Organization</t>
   </si>
   <si>
     <t>Contact</t>
@@ -305,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -395,37 +395,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>26</v>
       </c>
     </row>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ImplementationGuide/my-ig/ValueSet/FoodAllergyVS</t>
+    <t>http://example.com/fhir/example/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:08:49+00:00</t>
+    <t>2022-09-26T19:15:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:15:54+00:00</t>
+    <t>2022-09-26T19:21:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:21:34+00:00</t>
+    <t>2022-09-26T19:28:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:28:54+00:00</t>
+    <t>2022-09-26T19:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T19:40:28+00:00</t>
+    <t>2022-09-26T20:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T20:12:38+00:00</t>
+    <t>2022-10-03T18:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-03T18:17:50+00:00</t>
+    <t>2022-10-08T07:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T07:01:50+00:00</t>
+    <t>2022-10-08T07:07:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T07:07:54+00:00</t>
+    <t>2022-10-08T07:26:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T07:26:49+00:00</t>
+    <t>2022-10-20T18:43:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T18:43:56+00:00</t>
+    <t>2022-10-21T07:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T07:32:02+00:00</t>
+    <t>2022-10-21T07:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T07:33:00+00:00</t>
+    <t>2022-10-21T07:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T07:34:01+00:00</t>
+    <t>2022-10-23T04:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T04:55:23+00:00</t>
+    <t>2022-10-23T05:54:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T05:54:39+00:00</t>
+    <t>2022-10-23T08:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:15:29+00:00</t>
+    <t>2022-10-23T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:15:59+00:00</t>
+    <t>2022-10-25T12:41:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:41:55+00:00</t>
+    <t>2022-10-25T12:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:42:28+00:00</t>
+    <t>2022-10-25T13:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:44:56+00:00</t>
+    <t>2022-10-25T20:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T20:14:11+00:00</t>
+    <t>2022-10-25T20:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T20:19:05+00:00</t>
+    <t>2022-10-25T21:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T21:54:13+00:00</t>
+    <t>2022-10-26T19:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-26T19:07:24+00:00</t>
+    <t>2022-10-26T19:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-26T19:16:08+00:00</t>
+    <t>2022-11-10T23:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T23:21:17+00:00</t>
+    <t>2022-11-11T07:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/FoodAllergyVS</t>
+    <t>http://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T07:39:45+00:00</t>
+    <t>2022-11-11T07:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T07:48:06+00:00</t>
+    <t>2022-11-11T07:58:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
+    <t>https://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T07:58:05+00:00</t>
+    <t>2022-11-11T08:12:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:12:46+00:00</t>
+    <t>2022-11-11T08:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:43:20+00:00</t>
+    <t>2022-11-12T10:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T10:30:05+00:00</t>
+    <t>2022-11-12T10:31:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T10:31:58+00:00</t>
+    <t>2023-01-10T23:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T23:08:40+00:00</t>
+    <t>2023-01-23T19:01:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T19:01:42+00:00</t>
+    <t>2023-01-23T19:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
+    <t>http://medigree.net/fhir/r5demo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T19:20:09+00:00</t>
+    <t>2023-01-23T19:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T19:27:14+00:00</t>
+    <t>2023-01-26T10:16:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T10:16:55+00:00</t>
+    <t>2023-01-26T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T10:17:51+00:00</t>
+    <t>2023-04-23T16:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:18:55+00:00</t>
+    <t>2023-04-23T16:42:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:42:50+00:00</t>
+    <t>2023-04-23T16:45:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:45:24+00:00</t>
+    <t>2023-04-23T16:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:46:24+00:00</t>
+    <t>2023-04-23T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:52:42+00:00</t>
+    <t>2023-04-23T16:58:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:58:10+00:00</t>
+    <t>2023-04-23T16:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:59:10+00:00</t>
+    <t>2023-04-23T16:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
